--- a/data/trans_orig/P64D1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25212</v>
+        <v>23883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52807</v>
+        <v>51619</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2266826740533727</v>
+        <v>0.2266826740533726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1564630004259069</v>
+        <v>0.1482190930582813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3277186167480356</v>
+        <v>0.3203454633066909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -762,19 +762,19 @@
         <v>38698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31357</v>
+        <v>30150</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46843</v>
+        <v>46930</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.460439255379509</v>
+        <v>0.4604392553795091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3730947109928731</v>
+        <v>0.3587374692189423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5573477159819893</v>
+        <v>0.5583881097727946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -783,19 +783,19 @@
         <v>75224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60194</v>
+        <v>61328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91154</v>
+        <v>91025</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3068120814019495</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2455066205490622</v>
+        <v>0.2501352555430195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3717815644115011</v>
+        <v>0.3712572163701042</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>124609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108329</v>
+        <v>109517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135924</v>
+        <v>137253</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7733173259466274</v>
+        <v>0.7733173259466272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6722813832519642</v>
+        <v>0.679654536693309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8435369995740931</v>
+        <v>0.8517809069417184</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -833,19 +833,19 @@
         <v>45348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37203</v>
+        <v>37116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52689</v>
+        <v>53896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.539560744620491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4426522840180106</v>
+        <v>0.4416118902272053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6269052890071268</v>
+        <v>0.6412625307810574</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>172</v>
@@ -854,19 +854,19 @@
         <v>169957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154027</v>
+        <v>154156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>184987</v>
+        <v>183853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6931879185980506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6282184355884989</v>
+        <v>0.6287427836298957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7544933794509379</v>
+        <v>0.7498647444569805</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>300037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>264735</v>
+        <v>268241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>333098</v>
+        <v>336721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2378337623384336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.209850404478516</v>
+        <v>0.2126299832845897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2640408749465348</v>
+        <v>0.2669124681980251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>489</v>
@@ -979,19 +979,19 @@
         <v>356904</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331338</v>
+        <v>328619</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>384995</v>
+        <v>383556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3824418387627682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.355047164403496</v>
+        <v>0.3521338826492671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.412543445684373</v>
+        <v>0.4110015973595322</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>750</v>
@@ -1000,19 +1000,19 @@
         <v>656940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>615236</v>
+        <v>612897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705394</v>
+        <v>700174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2993217523820778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2803201134190076</v>
+        <v>0.2792543278553196</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3213985996724266</v>
+        <v>0.3190203913414598</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>961503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>928442</v>
+        <v>924819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>996805</v>
+        <v>993299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7621662376615663</v>
+        <v>0.7621662376615662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7359591250534651</v>
+        <v>0.7330875318019748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7901495955214841</v>
+        <v>0.7873700167154105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>753</v>
@@ -1050,19 +1050,19 @@
         <v>576319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>548228</v>
+        <v>549667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>601885</v>
+        <v>604604</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6175581612372318</v>
+        <v>0.6175581612372317</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5874565543156273</v>
+        <v>0.5889984026404679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6449528355965041</v>
+        <v>0.647866117350733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1572</v>
@@ -1071,19 +1071,19 @@
         <v>1537823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1489369</v>
+        <v>1494589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1579527</v>
+        <v>1581866</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7006782476179221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6786014003275733</v>
+        <v>0.6809796086585402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7196798865809925</v>
+        <v>0.7207456721446804</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>127930</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107617</v>
+        <v>107421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148395</v>
+        <v>149276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2674334639062781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2249685455770348</v>
+        <v>0.2245587488810581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3102137182574455</v>
+        <v>0.3120555789015353</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -1196,19 +1196,19 @@
         <v>163726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>146899</v>
+        <v>145035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182998</v>
+        <v>180659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3455919480632808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3100722661346337</v>
+        <v>0.3061375783928288</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3862697505965024</v>
+        <v>0.3813325215824552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>358</v>
@@ -1217,19 +1217,19 @@
         <v>291656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>265227</v>
+        <v>266319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320539</v>
+        <v>318093</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3063236121886216</v>
+        <v>0.3063236121886215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.278564925069526</v>
+        <v>0.2797125196498252</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3366590739876611</v>
+        <v>0.3340902190191889</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>350433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>329968</v>
+        <v>329087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>370746</v>
+        <v>370942</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7325665360937219</v>
+        <v>0.7325665360937218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6897862817425544</v>
+        <v>0.6879444210984647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7750314544229655</v>
+        <v>0.775441251118942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -1267,19 +1267,19 @@
         <v>310030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290758</v>
+        <v>293097</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326857</v>
+        <v>328721</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6544080519367192</v>
+        <v>0.6544080519367191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6137302494034975</v>
+        <v>0.6186674784175449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6899277338653661</v>
+        <v>0.6938624216071709</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>701</v>
@@ -1288,19 +1288,19 @@
         <v>660462</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631579</v>
+        <v>634025</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686891</v>
+        <v>685799</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6936763878113784</v>
+        <v>0.6936763878113783</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6633409260123384</v>
+        <v>0.6659097809808111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7214350749304741</v>
+        <v>0.7202874803501748</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>464494</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>425954</v>
+        <v>420739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>506400</v>
+        <v>510047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2443368166305309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2240641604591384</v>
+        <v>0.2213208774632016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2663806634315902</v>
+        <v>0.2682991686439095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>776</v>
@@ -1413,19 +1413,19 @@
         <v>559327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>528815</v>
+        <v>524603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>596346</v>
+        <v>594164</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3751297509019573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3546659260432504</v>
+        <v>0.3518410075256335</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3999572407023138</v>
+        <v>0.3984940635850183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1188</v>
@@ -1434,19 +1434,19 @@
         <v>1023821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>969001</v>
+        <v>974957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1077550</v>
+        <v>1084923</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3018285123638102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2856671928877234</v>
+        <v>0.2874230532599555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3176679424999824</v>
+        <v>0.3198417015576997</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1436544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1394638</v>
+        <v>1390991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1475084</v>
+        <v>1480299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7556631833694691</v>
+        <v>0.755663183369469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7336193365684098</v>
+        <v>0.7317008313560905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7759358395408618</v>
+        <v>0.7786791225367984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1219</v>
@@ -1484,19 +1484,19 @@
         <v>931697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>894678</v>
+        <v>896860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962209</v>
+        <v>966421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6248702490980428</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6000427592976861</v>
+        <v>0.6015059364149817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6453340739567496</v>
+        <v>0.6481589924743666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2445</v>
@@ -1505,19 +1505,19 @@
         <v>2368242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2314513</v>
+        <v>2307140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2423062</v>
+        <v>2417106</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6981714876361895</v>
+        <v>0.6981714876361897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6823320575000167</v>
+        <v>0.6801582984423004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7143328071122765</v>
+        <v>0.7125769467400445</v>
       </c>
     </row>
     <row r="15">
